--- a/LoowooTech.Stock/Excels/ExcelThirteen2.xlsx
+++ b/LoowooTech.Stock/Excels/ExcelThirteen2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,17 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -145,24 +144,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,39 +191,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,8 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,16 +244,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +513,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -543,41 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,26 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,19 +630,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,116 +651,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,9 +780,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:CJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CC8" sqref="CC8"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:CJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1371,88 +1365,88 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
-      <c r="CE3" s="8"/>
-      <c r="CF3" s="8"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="8"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:88">
       <c r="A4" s="4"/>
@@ -1463,94 +1457,94 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8" t="s">
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8" t="s">
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="8"/>
-      <c r="BV4" s="8"/>
-      <c r="BW4" s="8"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="8"/>
-      <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
-      <c r="CD4" s="8"/>
-      <c r="CE4" s="8"/>
-      <c r="CF4" s="8"/>
-      <c r="CG4" s="8"/>
-      <c r="CH4" s="8"/>
-      <c r="CI4" s="8"/>
-      <c r="CJ4" s="8"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:88">
       <c r="A5" s="4"/>
@@ -1561,110 +1555,110 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6" t="s">
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="6"/>
-      <c r="BW5" s="6"/>
-      <c r="BX5" s="6"/>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="6"/>
-      <c r="CA5" s="6"/>
-      <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="6"/>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="6"/>
-      <c r="CI5" s="6"/>
-      <c r="CJ5" s="6"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:88">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1793,20 +1787,20 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="14" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1857,16 +1851,16 @@
       <c r="AB7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AC7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="14" t="s">
+      <c r="AE7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="4" t="s">
@@ -1917,16 +1911,16 @@
       <c r="AV7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="14" t="s">
+      <c r="AW7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AX7" s="14" t="s">
+      <c r="AX7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="14" t="s">
+      <c r="AY7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AZ7" s="15" t="s">
+      <c r="AZ7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="BA7" s="4" t="s">
@@ -1977,16 +1971,16 @@
       <c r="BP7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BQ7" s="14" t="s">
+      <c r="BQ7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BR7" s="14" t="s">
+      <c r="BR7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="BS7" s="14" t="s">
+      <c r="BS7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="BT7" s="15" t="s">
+      <c r="BT7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="BU7" s="4" t="s">
@@ -2039,186 +2033,186 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:88">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="9"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="10"/>
-      <c r="BP8" s="10"/>
-      <c r="BQ8" s="9"/>
-      <c r="BR8" s="10"/>
-      <c r="BS8" s="10"/>
-      <c r="BT8" s="10"/>
-      <c r="BU8" s="9"/>
-      <c r="BV8" s="10"/>
-      <c r="BW8" s="10"/>
-      <c r="BX8" s="10"/>
-      <c r="BY8" s="9"/>
-      <c r="BZ8" s="10"/>
-      <c r="CA8" s="10"/>
-      <c r="CB8" s="10"/>
-      <c r="CC8" s="9"/>
-      <c r="CD8" s="10"/>
-      <c r="CE8" s="10"/>
-      <c r="CF8" s="10"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="10"/>
-      <c r="CI8" s="10"/>
-      <c r="CJ8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:88">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
       <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
       <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
       <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
       <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
       <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
       <c r="BI9" s="8"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
       <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
       <c r="BQ9" s="8"/>
-      <c r="BR9" s="8"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
       <c r="BU9" s="8"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="8"/>
-      <c r="BX9" s="8"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
       <c r="BY9" s="8"/>
-      <c r="BZ9" s="8"/>
-      <c r="CA9" s="8"/>
-      <c r="CB9" s="8"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
       <c r="CC9" s="8"/>
-      <c r="CD9" s="8"/>
-      <c r="CE9" s="8"/>
-      <c r="CF9" s="8"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
       <c r="CG9" s="8"/>
-      <c r="CH9" s="8"/>
-      <c r="CI9" s="8"/>
-      <c r="CJ9" s="8"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="41">
